--- a/advanced-analysis-think-deeper-demo.xlsx
+++ b/advanced-analysis-think-deeper-demo.xlsx
@@ -8,19 +8,276 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C245B3C9-C40E-424C-B6FC-E288070C1EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0066CE6A-28E9-495F-A046-A3FAE8C875DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{DE2FC6D0-B278-4A6A-8CDE-4A3419D8176F}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="Analysis1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="10">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="10">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
+    <bk>
+      <rc t="2" v="7"/>
+    </bk>
+    <bk>
+      <rc t="2" v="8"/>
+    </bk>
+    <bk>
+      <rc t="2" v="9"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>autompg_df=xl(%P2%, headers=True)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Data quality report: missing values and data types
+# Check for missing values and data types in autompg_df
+data_quality_report = {
+    'missing_values': autompg_df.isnull().sum(),
+    'data_types': autompg_df.dtypes
+}
+pd.DataFrame(data_quality_report)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Impute missing 'horsepower' values and confirm
+# Impute missing values in 'horsepower' with the median
+horsepower_median = autompg_df['horsepower'].median()
+autompg_df['horsepower'].fillna(horsepower_median, inplace=True)
+# Confirm no missing values remain
+autompg_df['horsepower'].isnull().sum()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Summary statistics for all numerical features
+#Summary statistics for all numerical features
+numerical_summary = autompg_df.describe().T
+numerical_summary</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Visualize distributions of key variables
+#Visualize distributions of key variables
+plt.rcParams['font.family'] = ['Meiryo','Batang','TH SarabunPSK','SimHei','DejaVu Sans']
+fig, axes = plt.subplots(4, 2, figsize=(12, 16))
+features = ['mpg', 'horsepower', 'weight', 'displacement']
+for i, feature in enumerate(features):
+    # Histogram
+    autompg_df[feature].plot(kind='hist', bins=20, ax=axes[i,0], color='skyblue', edgecolor='black')
+    axes[i,0].set_title(f'Histogram of {feature}')
+    axes[i,0].set_xlabel(feature)
+    axes[i,0].set_ylabel('Frequency')
+    # Boxplot
+    autompg_df[feature].plot(kind='box', ax=axes[i,1], color='orange')
+    axes[i,1].set_title(f'Boxplot of {feature}')
+    axes[i,1].set_xlabel(feature)
+plt.tight_layout()
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Correlation matrix for numerical features
+#Correlation matrix for numerical features
+correlation_matrix = autompg_df.corr(numeric_only=True)
+correlation_matrix</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Encode 'origin' and check skewness of numerical features
+#Encode 'origin' categorical variable and check skewness
+# Encode 'origin' using one-hot encoding
+encoded_df = pd.get_dummies(autompg_df, columns=['origin'], drop_first=True)
+# Check skewness of numerical features
+skewness_report = encoded_df.select_dtypes(include=[np.number]).skew().sort_values(ascending=False)
+skewness_report</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Check columns after one-hot encoding for 'origin'
+#Check columns after one-hot encoding for 'origin'
+encoded_df.columns</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Regression model to predict mpg and evaluation metrics
+#Regression model to predict mpg
+from sklearn.model_selection import train_test_split
+from sklearn.linear_model import LinearRegression
+from sklearn.metrics import r2_score, mean_squared_error
+# Select features for regression
+features = ['cylinders', 'displacement', 'horsepower', 'weight', 'acceleration', 'model_year', 'origin_japan', 'origin_usa']
+X = encoded_df[features]
+y = encoded_df['mpg']
+# Split data into train and test sets
+X_train, X_test, y_train, y_test = train_test_split(X, y, test_size=0.2, random_state=42)
+# Fit linear regression model
+lr = LinearRegression()
+lr.fit(X_train, y_train)
+# Predict and evaluate
+y_pred = lr.predict(X_test)
+r2 = r2_score(y_test, y_pred)
+rmse = mean_squared_error(y_test, y_pred, squared=False)
+# Output model evaluation metrics
+pd.DataFrame({'R2': [r2], 'RMSE': [rmse]})</code>
+    </pythonScript>
+    <pythonScript>
+      <code>#Interpret model coefficients
+#Interpret model coefficients
+#Interpret model coefficients
+coefficients = pd.DataFrame({'Feature': features, 'Coefficient': lr.coef_})
+coefficients.sort_values(by='Coefficient', ascending=False)</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="330">
   <si>
     <t>mpg</t>
   </si>
@@ -971,13 +1228,52 @@
   </si>
   <si>
     <t>chevy s-10</t>
+  </si>
+  <si>
+    <t>Analysis Sheet</t>
+  </si>
+  <si>
+    <t>This sheet will include all the Python formulas generated by Copilot.</t>
+  </si>
+  <si>
+    <t>Load data from mpg, autompg</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>Data quality report: missing values and data types</t>
+  </si>
+  <si>
+    <t>Impute missing 'horsepower' values and confirm</t>
+  </si>
+  <si>
+    <t>Summary statistics for all numerical features</t>
+  </si>
+  <si>
+    <t>Visualize distributions of key variables</t>
+  </si>
+  <si>
+    <t>Correlation matrix for numerical features</t>
+  </si>
+  <si>
+    <t>Encode 'origin' and check skewness of numerical features</t>
+  </si>
+  <si>
+    <t>Regression model to predict mpg and evaluation metrics</t>
+  </si>
+  <si>
+    <t>Check columns after one-hot encoding for 'origin'</t>
+  </si>
+  <si>
+    <t>Interpret model coefficients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -1108,6 +1404,30 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF156082"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1454,8 +1774,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1512,6 +1835,813 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>700465</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" title="Visualize distributions of key variables">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34283D1F-565D-69AF-9096-264ECBD7D773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Analysis1!A58"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17775767"/>
+          <a:ext cx="3646865" cy="4876800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="8">
+  <a r="12" c="10">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">origin</v>
+    <v t="s">name</v>
+    <v>0</v>
+    <v>18</v>
+    <v>8</v>
+    <v>307</v>
+    <v>130</v>
+    <v>3504</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">chevrolet chevelle malibu</v>
+    <v>1</v>
+    <v>15</v>
+    <v>8</v>
+    <v>350</v>
+    <v>165</v>
+    <v>3693</v>
+    <v>11.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">buick skylark 320</v>
+    <v>2</v>
+    <v>18</v>
+    <v>8</v>
+    <v>318</v>
+    <v>150</v>
+    <v>3436</v>
+    <v>11</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">plymouth satellite</v>
+    <v>3</v>
+    <v>16</v>
+    <v>8</v>
+    <v>304</v>
+    <v>150</v>
+    <v>3433</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">amc rebel sst</v>
+    <v>4</v>
+    <v>17</v>
+    <v>8</v>
+    <v>302</v>
+    <v>140</v>
+    <v>3449</v>
+    <v>10.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">ford torino</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>393</v>
+    <v>27</v>
+    <v>4</v>
+    <v>140</v>
+    <v>86</v>
+    <v>2790</v>
+    <v>15.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">ford mustang gl</v>
+    <v>394</v>
+    <v>44</v>
+    <v>4</v>
+    <v>97</v>
+    <v>52</v>
+    <v>2130</v>
+    <v>24.6</v>
+    <v>82</v>
+    <v t="s">europe</v>
+    <v t="s">vw pickup</v>
+    <v>395</v>
+    <v>32</v>
+    <v>4</v>
+    <v>135</v>
+    <v>84</v>
+    <v>2295</v>
+    <v>11.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">dodge rampage</v>
+    <v>396</v>
+    <v>28</v>
+    <v>4</v>
+    <v>120</v>
+    <v>79</v>
+    <v>2625</v>
+    <v>18.600000000000001</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">ford ranger</v>
+    <v>397</v>
+    <v>31</v>
+    <v>4</v>
+    <v>119</v>
+    <v>82</v>
+    <v>2720</v>
+    <v>19.399999999999999</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v t="s">chevy s-10</v>
+  </a>
+  <a r="10" c="3">
+    <v t="s"/>
+    <v t="s">missing_values</v>
+    <v t="s">data_types</v>
+    <v t="s">mpg</v>
+    <v>0</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">cylinders</v>
+    <v>0</v>
+    <v t="s">&lt;Int64DType&gt;</v>
+    <v t="s">displacement</v>
+    <v>0</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">horsepower</v>
+    <v>6</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">weight</v>
+    <v>0</v>
+    <v t="s">&lt;Int64DType&gt;</v>
+    <v t="s">acceleration</v>
+    <v>0</v>
+    <v t="s">&lt;Float64DType&gt;</v>
+    <v t="s">model_year</v>
+    <v>0</v>
+    <v t="s">&lt;Int64DType&gt;</v>
+    <v t="s">origin</v>
+    <v>0</v>
+    <v t="s">&lt;ObjectDType&gt;</v>
+    <v t="s">name</v>
+    <v>0</v>
+    <v t="s">&lt;ObjectDType&gt;</v>
+  </a>
+  <a r="8" c="9">
+    <v t="s"/>
+    <v t="s">count</v>
+    <v t="s">mean</v>
+    <v t="s">std</v>
+    <v t="s">min</v>
+    <v t="s">25%</v>
+    <v t="s">50%</v>
+    <v t="s">75%</v>
+    <v t="s">max</v>
+    <v t="s">mpg</v>
+    <v>398</v>
+    <v>23.514572864321607</v>
+    <v>7.8159843125657824</v>
+    <v>9</v>
+    <v>17.5</v>
+    <v>23</v>
+    <v>29</v>
+    <v>46.6</v>
+    <v t="s">cylinders</v>
+    <v>398</v>
+    <v>5.4547738693467336</v>
+    <v>1.7010042445332094</v>
+    <v>3</v>
+    <v>4</v>
+    <v>4</v>
+    <v>8</v>
+    <v>8</v>
+    <v t="s">displacement</v>
+    <v>398</v>
+    <v>193.42587939698493</v>
+    <v>104.26983817119581</v>
+    <v>68</v>
+    <v>104.25</v>
+    <v>148.5</v>
+    <v>262</v>
+    <v>455</v>
+    <v t="s">horsepower</v>
+    <v>398</v>
+    <v>104.30402010050251</v>
+    <v>38.222624868108682</v>
+    <v>46</v>
+    <v>76</v>
+    <v>93.5</v>
+    <v>125</v>
+    <v>230</v>
+    <v t="s">weight</v>
+    <v>398</v>
+    <v>2970.424623115578</v>
+    <v>846.84177419732714</v>
+    <v>1613</v>
+    <v>2223.75</v>
+    <v>2803.5</v>
+    <v>3608</v>
+    <v>5140</v>
+    <v t="s">acceleration</v>
+    <v>398</v>
+    <v>15.568090452261307</v>
+    <v>2.7576889298126757</v>
+    <v>8</v>
+    <v>13.825000000000001</v>
+    <v>15.5</v>
+    <v>17.175000000000001</v>
+    <v>24.8</v>
+    <v t="s">model_year</v>
+    <v>398</v>
+    <v>76.010050251256288</v>
+    <v>3.6976266467326231</v>
+    <v>70</v>
+    <v>73</v>
+    <v>76</v>
+    <v>79</v>
+    <v>82</v>
+  </a>
+  <a r="2">
+    <v>1189</v>
+    <v>1590</v>
+  </a>
+  <a r="8" c="8">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">mpg</v>
+    <v>1</v>
+    <v>-0.77539628542055394</v>
+    <v>-0.80420282480589789</v>
+    <v>-0.7734532045742144</v>
+    <v>-0.8317409332443344</v>
+    <v>0.42028891210165054</v>
+    <v>0.57926713308330924</v>
+    <v t="s">cylinders</v>
+    <v>-0.77539628542055394</v>
+    <v>1</v>
+    <v>0.95072139013924151</v>
+    <v>0.84128446376210164</v>
+    <v>0.89601679545339441</v>
+    <v>-0.50541948905217582</v>
+    <v>-0.34874579661359445</v>
+    <v t="s">displacement</v>
+    <v>-0.80420282480589789</v>
+    <v>0.95072139013924151</v>
+    <v>1</v>
+    <v>0.8957782012539004</v>
+    <v>0.93282414684163395</v>
+    <v>-0.54368408350092989</v>
+    <v>-0.37016416107932471</v>
+    <v t="s">horsepower</v>
+    <v>-0.7734532045742144</v>
+    <v>0.84128446376210164</v>
+    <v>0.8957782012539004</v>
+    <v>1</v>
+    <v>0.86244236099156213</v>
+    <v>-0.68658973730477091</v>
+    <v>-0.41373279760678372</v>
+    <v t="s">weight</v>
+    <v>-0.8317409332443344</v>
+    <v>0.89601679545339441</v>
+    <v>0.93282414684163395</v>
+    <v>0.86244236099156213</v>
+    <v>1</v>
+    <v>-0.4174573199403932</v>
+    <v>-0.30656433428328922</v>
+    <v t="s">acceleration</v>
+    <v>0.42028891210165054</v>
+    <v>-0.50541948905217582</v>
+    <v>-0.54368408350092989</v>
+    <v>-0.68658973730477091</v>
+    <v>-0.4174573199403932</v>
+    <v>1</v>
+    <v>0.28813695429949115</v>
+    <v t="s">model_year</v>
+    <v>0.57926713308330924</v>
+    <v>-0.34874579661359445</v>
+    <v>-0.37016416107932471</v>
+    <v>-0.41373279760678372</v>
+    <v>-0.30656433428328922</v>
+    <v>0.28813695429949115</v>
+    <v>1</v>
+  </a>
+  <a r="7" c="2">
+    <v t="s">horsepower</v>
+    <v>1.1062242930872614</v>
+    <v t="s">displacement</v>
+    <v>0.71964516430059522</v>
+    <v t="s">weight</v>
+    <v>0.53106251259946291</v>
+    <v t="s">cylinders</v>
+    <v>0.52692154535289393</v>
+    <v t="s">mpg</v>
+    <v>0.45706634399491913</v>
+    <v t="s">acceleration</v>
+    <v>0.27877684462588986</v>
+    <v t="s">model_year</v>
+    <v>1.153459401509278E-2</v>
+  </a>
+  <a r="2" c="3">
+    <v t="s"/>
+    <v t="s">R2</v>
+    <v t="s">RMSE</v>
+    <v>0</v>
+    <v>0.84490963327620827</v>
+    <v>2.8876733677169271</v>
+  </a>
+  <a r="9" c="3">
+    <v t="s"/>
+    <v t="s">Feature</v>
+    <v t="s">Coefficient</v>
+    <v>5</v>
+    <v t="s">model_year</v>
+    <v>0.82596927182081692</v>
+    <v>4</v>
+    <v t="s">acceleration</v>
+    <v>6.7966521788843048E-2</v>
+    <v>1</v>
+    <v t="s">displacement</v>
+    <v>1.9775710196321711E-2</v>
+    <v>3</v>
+    <v t="s">weight</v>
+    <v>-7.0472665080488443E-3</v>
+    <v>2</v>
+    <v t="s">horsepower</v>
+    <v>-1.4561875499478419E-2</v>
+    <v>0</v>
+    <v t="s">cylinders</v>
+    <v>-0.1656637759888904</v>
+    <v>6</v>
+    <v t="s">origin_japan</v>
+    <v>-0.27578067033266168</v>
+    <v>7</v>
+    <v t="s">origin_usa</v>
+    <v>-2.9469066693935657</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="27">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
+0    18.0          8         307.0       130.0    3504          12.0   
+1    15.0          8         350.0       165.0    3693          11.5   
+2    18.0          8         318.0  ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>4</v>
+    <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">              missing_values data_types
+mpg                        0    float64
+cylinders                  0      int64
+displacement               0    float64
+horsepower                 6    float64
+weight                     0      int64
+acceleration...</v>
+    <v>4</v>
+    <v>2</v>
+  </rv>
+  <rv s="3">
+    <fb>0</fb>
+    <v>&lt;class 'numpy.int64'&gt;</v>
+    <v>int64</v>
+    <v>0</v>
+    <v>0</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>6</v>
+    <v>7</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">              count         mean         std     min       25%     50%  \
+mpg           398.0    23.514573    7.815984     9.0    17.500    23.0   
+cylinders     398.0     5.454774    1.701004     3.0     4.000     4.0   
+displacement  398.0   193.4258...</v>
+    <v>8</v>
+    <v>2</v>
+  </rv>
+  <rv s="4">
+    <v>0</v>
+    <v>9</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+  </rv>
+  <rv s="5">
+    <v>Image</v>
+    <v>7</v>
+    <v>10</v>
+    <v>11</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
+    <v>PngImageFile</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=1189x1590 at 0x7F9F3E764230&gt;</v>
+    <v>12</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>9</v>
+    <v>14</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                   mpg  cylinders  displacement  horsepower    weight  \
+mpg           1.000000  -0.775396     -0.804203   -0.773453 -0.831741   
+cylinders    -0.775396   1.000000      0.950721    0.841284  0.896017   
+displacement -0.804203   0.950721...</v>
+    <v>15</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>Series</v>
+    <v>11</v>
+    <v>17</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>horsepower      1.106224
+displacement    0.719645
+weight          0.531063
+cylinders       0.526922
+mpg             0.457066
+acceleration    0.278777
+model_year      0.011535
+dtype: float64</v>
+    <v>18</v>
+    <v>2</v>
+  </rv>
+  <rv s="6">
+    <v>&lt;class 'pandas.core.indexes.base.Index'&gt;</v>
+    <v>Index</v>
+    <v>Index(['mpg', 'cylinders', 'displacement', 'horsepower', 'weight',
+       'acceleration', 'model_year', 'name', 'origin_japan', 'origin_usa'],
+      dtype='object')</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>13</v>
+    <v>21</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">        R2      RMSE
+0  0.84491  2.887673</v>
+    <v>22</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>15</v>
+    <v>24</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">        Feature  Coefficient
+5    model_year     0.825969
+4  acceleration     0.067967
+1  displacement     0.019776
+3        weight    -0.007047
+2    horsepower    -0.014562
+0     cylinders    -0.165664
+6  origin_japan    -0.275781
+7    origin_usa    -...</v>
+    <v>25</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="basicValue" t="i"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_Format" t="spb"/>
+    <k n="image" t="r"/>
+    <k n="size" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="16">
+    <spb s="0">
+      <v>398</v>
+      <v>9</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>9</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>3</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>8</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>5</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+    </spb>
+    <spb s="0">
+      <v>7</v>
+      <v>7</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>8</v>
+    </spb>
+    <spb s="4">
+      <v>7</v>
+      <v>1</v>
+      <v>Series</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>10</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>12</v>
+    </spb>
+    <spb s="0">
+      <v>8</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>14</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="image" t="i"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <richProperties>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1851,9 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6936C-FA72-492B-8F57-08DF00678A65}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I399"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.85"/>
   <cols>
@@ -13423,4 +14551,1609 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC0001E-B435-4658-8DE4-D62529504D2F}">
+  <dimension ref="A1:J128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.85"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A5" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A6" t="e" cm="1" vm="1">
+        <f t="array" ref="A6">_xlfn._xlws.PY(0,1,autompg[[#Headers],[#Data]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A8" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A9" t="str" cm="1">
+        <f t="array" ref="A9:J20">IFERROR(_FV(A6,"arrayPreview"),_xlfn._DF_Python_str(A6))</f>
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="C9" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="D9" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="E9" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="F9" t="str">
+        <v>weight</v>
+      </c>
+      <c r="G9" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="H9" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="I9" t="str">
+        <v>origin</v>
+      </c>
+      <c r="J9" t="str">
+        <v>name</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>307</v>
+      </c>
+      <c r="E10">
+        <v>130</v>
+      </c>
+      <c r="F10">
+        <v>3504</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>70</v>
+      </c>
+      <c r="I10" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J10" t="str">
+        <v>chevrolet chevelle malibu</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>350</v>
+      </c>
+      <c r="E11">
+        <v>165</v>
+      </c>
+      <c r="F11">
+        <v>3693</v>
+      </c>
+      <c r="G11">
+        <v>11.5</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J11" t="str">
+        <v>buick skylark 320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>318</v>
+      </c>
+      <c r="E12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <v>3436</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>70</v>
+      </c>
+      <c r="I12" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J12" t="str">
+        <v>plymouth satellite</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>304</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>3433</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J13" t="str">
+        <v>amc rebel sst</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>302</v>
+      </c>
+      <c r="E14">
+        <v>140</v>
+      </c>
+      <c r="F14">
+        <v>3449</v>
+      </c>
+      <c r="G14">
+        <v>10.5</v>
+      </c>
+      <c r="H14">
+        <v>70</v>
+      </c>
+      <c r="I14" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J14" t="str">
+        <v>ford torino</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A15" t="str">
+        <v>...</v>
+      </c>
+      <c r="B15" t="str">
+        <v>...</v>
+      </c>
+      <c r="C15" t="str">
+        <v>...</v>
+      </c>
+      <c r="D15" t="str">
+        <v>...</v>
+      </c>
+      <c r="E15" t="str">
+        <v>...</v>
+      </c>
+      <c r="F15" t="str">
+        <v>...</v>
+      </c>
+      <c r="G15" t="str">
+        <v>...</v>
+      </c>
+      <c r="H15" t="str">
+        <v>...</v>
+      </c>
+      <c r="I15" t="str">
+        <v>...</v>
+      </c>
+      <c r="J15" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A16">
+        <v>393</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>140</v>
+      </c>
+      <c r="E16">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>2790</v>
+      </c>
+      <c r="G16">
+        <v>15.6</v>
+      </c>
+      <c r="H16">
+        <v>82</v>
+      </c>
+      <c r="I16" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J16" t="str">
+        <v>ford mustang gl</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A17">
+        <v>394</v>
+      </c>
+      <c r="B17">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>97</v>
+      </c>
+      <c r="E17">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>2130</v>
+      </c>
+      <c r="G17">
+        <v>24.6</v>
+      </c>
+      <c r="H17">
+        <v>82</v>
+      </c>
+      <c r="I17" t="str">
+        <v>europe</v>
+      </c>
+      <c r="J17" t="str">
+        <v>vw pickup</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A18">
+        <v>395</v>
+      </c>
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>84</v>
+      </c>
+      <c r="F18">
+        <v>2295</v>
+      </c>
+      <c r="G18">
+        <v>11.6</v>
+      </c>
+      <c r="H18">
+        <v>82</v>
+      </c>
+      <c r="I18" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J18" t="str">
+        <v>dodge rampage</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A19">
+        <v>396</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>120</v>
+      </c>
+      <c r="E19">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>2625</v>
+      </c>
+      <c r="G19">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H19">
+        <v>82</v>
+      </c>
+      <c r="I19" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J19" t="str">
+        <v>ford ranger</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A20">
+        <v>397</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <v>2720</v>
+      </c>
+      <c r="G20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H20">
+        <v>82</v>
+      </c>
+      <c r="I20" t="str">
+        <v>usa</v>
+      </c>
+      <c r="J20" t="str">
+        <v>chevy s-10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A23" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A24" t="e" cm="1" vm="2">
+        <f t="array" ref="A24">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A26" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A27" t="str" cm="1">
+        <f t="array" ref="A27:C36">IFERROR(_FV(A24,"arrayPreview"),_xlfn._DF_Python_str(A24))</f>
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>missing_values</v>
+      </c>
+      <c r="C27" t="str">
+        <v>data_types</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A28" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A29" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A30" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A31" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.85">
+      <c r="A32" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A33" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
+        <v>&lt;Float64DType&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A34" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <v>&lt;Int64DType&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A35" t="str">
+        <v>origin</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
+        <v>&lt;ObjectDType&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A36" t="str">
+        <v>name</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <v>&lt;ObjectDType&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A39" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A40" cm="1" vm="3">
+        <f t="array" ref="A40">_xlfn._xlws.PY(2,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A43" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A44" t="e" cm="1" vm="4">
+        <f t="array" ref="A44">_xlfn._xlws.PY(3,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A46" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A47" t="str" cm="1">
+        <f t="array" ref="A47:I54">IFERROR(_FV(A44,"arrayPreview"),_xlfn._DF_Python_str(A44))</f>
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v>count</v>
+      </c>
+      <c r="C47" t="str">
+        <v>mean</v>
+      </c>
+      <c r="D47" t="str">
+        <v>std</v>
+      </c>
+      <c r="E47" t="str">
+        <v>min</v>
+      </c>
+      <c r="F47" t="str">
+        <v>25%</v>
+      </c>
+      <c r="G47" t="str">
+        <v>50%</v>
+      </c>
+      <c r="H47" t="str">
+        <v>75%</v>
+      </c>
+      <c r="I47" t="str">
+        <v>max</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A48" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B48">
+        <v>398</v>
+      </c>
+      <c r="C48">
+        <v>23.514572864321607</v>
+      </c>
+      <c r="D48">
+        <v>7.8159843125657824</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>17.5</v>
+      </c>
+      <c r="G48">
+        <v>23</v>
+      </c>
+      <c r="H48">
+        <v>29</v>
+      </c>
+      <c r="I48">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A49" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B49">
+        <v>398</v>
+      </c>
+      <c r="C49">
+        <v>5.4547738693467336</v>
+      </c>
+      <c r="D49">
+        <v>1.7010042445332094</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A50" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B50">
+        <v>398</v>
+      </c>
+      <c r="C50">
+        <v>193.42587939698493</v>
+      </c>
+      <c r="D50">
+        <v>104.26983817119581</v>
+      </c>
+      <c r="E50">
+        <v>68</v>
+      </c>
+      <c r="F50">
+        <v>104.25</v>
+      </c>
+      <c r="G50">
+        <v>148.5</v>
+      </c>
+      <c r="H50">
+        <v>262</v>
+      </c>
+      <c r="I50">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A51" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="B51">
+        <v>398</v>
+      </c>
+      <c r="C51">
+        <v>104.30402010050251</v>
+      </c>
+      <c r="D51">
+        <v>38.222624868108682</v>
+      </c>
+      <c r="E51">
+        <v>46</v>
+      </c>
+      <c r="F51">
+        <v>76</v>
+      </c>
+      <c r="G51">
+        <v>93.5</v>
+      </c>
+      <c r="H51">
+        <v>125</v>
+      </c>
+      <c r="I51">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A52" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B52">
+        <v>398</v>
+      </c>
+      <c r="C52">
+        <v>2970.424623115578</v>
+      </c>
+      <c r="D52">
+        <v>846.84177419732714</v>
+      </c>
+      <c r="E52">
+        <v>1613</v>
+      </c>
+      <c r="F52">
+        <v>2223.75</v>
+      </c>
+      <c r="G52">
+        <v>2803.5</v>
+      </c>
+      <c r="H52">
+        <v>3608</v>
+      </c>
+      <c r="I52">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A53" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="B53">
+        <v>398</v>
+      </c>
+      <c r="C53">
+        <v>15.568090452261307</v>
+      </c>
+      <c r="D53">
+        <v>2.7576889298126757</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>13.825000000000001</v>
+      </c>
+      <c r="G53">
+        <v>15.5</v>
+      </c>
+      <c r="H53">
+        <v>17.175000000000001</v>
+      </c>
+      <c r="I53">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A54" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="B54">
+        <v>398</v>
+      </c>
+      <c r="C54">
+        <v>76.010050251256288</v>
+      </c>
+      <c r="D54">
+        <v>3.6976266467326231</v>
+      </c>
+      <c r="E54">
+        <v>70</v>
+      </c>
+      <c r="F54">
+        <v>73</v>
+      </c>
+      <c r="G54">
+        <v>76</v>
+      </c>
+      <c r="H54">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A57" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.85">
+      <c r="A58" t="e" cm="1" vm="5">
+        <f t="array" ref="A58">_xlfn._xlws.PY(4,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A77" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A78" t="e" cm="1" vm="6">
+        <f t="array" ref="A78">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.85">
+      <c r="A80" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A81" t="str" cm="1">
+        <f t="array" ref="A81:H88">IFERROR(_FV(A78,"arrayPreview"),_xlfn._DF_Python_str(A78))</f>
+        <v/>
+      </c>
+      <c r="B81" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="C81" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="D81" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="E81" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="F81" t="str">
+        <v>weight</v>
+      </c>
+      <c r="G81" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="H81" t="str">
+        <v>model_year</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A82" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>-0.77539628542055394</v>
+      </c>
+      <c r="D82">
+        <v>-0.80420282480589789</v>
+      </c>
+      <c r="E82">
+        <v>-0.7734532045742144</v>
+      </c>
+      <c r="F82">
+        <v>-0.8317409332443344</v>
+      </c>
+      <c r="G82">
+        <v>0.42028891210165054</v>
+      </c>
+      <c r="H82">
+        <v>0.57926713308330924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A83" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B83">
+        <v>-0.77539628542055394</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.95072139013924151</v>
+      </c>
+      <c r="E83">
+        <v>0.84128446376210164</v>
+      </c>
+      <c r="F83">
+        <v>0.89601679545339441</v>
+      </c>
+      <c r="G83">
+        <v>-0.50541948905217582</v>
+      </c>
+      <c r="H83">
+        <v>-0.34874579661359445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A84" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B84">
+        <v>-0.80420282480589789</v>
+      </c>
+      <c r="C84">
+        <v>0.95072139013924151</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0.8957782012539004</v>
+      </c>
+      <c r="F84">
+        <v>0.93282414684163395</v>
+      </c>
+      <c r="G84">
+        <v>-0.54368408350092989</v>
+      </c>
+      <c r="H84">
+        <v>-0.37016416107932471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A85" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="B85">
+        <v>-0.7734532045742144</v>
+      </c>
+      <c r="C85">
+        <v>0.84128446376210164</v>
+      </c>
+      <c r="D85">
+        <v>0.8957782012539004</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0.86244236099156213</v>
+      </c>
+      <c r="G85">
+        <v>-0.68658973730477091</v>
+      </c>
+      <c r="H85">
+        <v>-0.41373279760678372</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A86" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B86">
+        <v>-0.8317409332443344</v>
+      </c>
+      <c r="C86">
+        <v>0.89601679545339441</v>
+      </c>
+      <c r="D86">
+        <v>0.93282414684163395</v>
+      </c>
+      <c r="E86">
+        <v>0.86244236099156213</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>-0.4174573199403932</v>
+      </c>
+      <c r="H86">
+        <v>-0.30656433428328922</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A87" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="B87">
+        <v>0.42028891210165054</v>
+      </c>
+      <c r="C87">
+        <v>-0.50541948905217582</v>
+      </c>
+      <c r="D87">
+        <v>-0.54368408350092989</v>
+      </c>
+      <c r="E87">
+        <v>-0.68658973730477091</v>
+      </c>
+      <c r="F87">
+        <v>-0.4174573199403932</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0.28813695429949115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A88" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="B88">
+        <v>0.57926713308330924</v>
+      </c>
+      <c r="C88">
+        <v>-0.34874579661359445</v>
+      </c>
+      <c r="D88">
+        <v>-0.37016416107932471</v>
+      </c>
+      <c r="E88">
+        <v>-0.41373279760678372</v>
+      </c>
+      <c r="F88">
+        <v>-0.30656433428328922</v>
+      </c>
+      <c r="G88">
+        <v>0.28813695429949115</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A91" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A92" t="e" cm="1" vm="7">
+        <f t="array" ref="A92">_xlfn._xlws.PY(6,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A94" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A95" t="str" cm="1">
+        <f t="array" ref="A95:B101">IFERROR(_FV(A92,"arrayPreview"),_xlfn._DF_Python_str(A92))</f>
+        <v>horsepower</v>
+      </c>
+      <c r="B95">
+        <v>1.1062242930872614</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
+      <c r="A96" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="B96">
+        <v>0.71964516430059522</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A97" t="str">
+        <v>weight</v>
+      </c>
+      <c r="B97">
+        <v>0.53106251259946291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A98" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="B98">
+        <v>0.52692154535289393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A99" t="str">
+        <v>mpg</v>
+      </c>
+      <c r="B99">
+        <v>0.45706634399491913</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A100" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="B100">
+        <v>0.27877684462588986</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A101" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="B101">
+        <v>1.153459401509278E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A104" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A105" t="e" cm="1" vm="8">
+        <f t="array" ref="A105">_xlfn._xlws.PY(7,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A108" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A109" t="e" cm="1" vm="9">
+        <f t="array" ref="A109">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A111" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A112" t="str" cm="1">
+        <f t="array" ref="A112:C113">IFERROR(_FV(A109,"arrayPreview"),_xlfn._DF_Python_str(A109))</f>
+        <v/>
+      </c>
+      <c r="B112" t="str">
+        <v>R2</v>
+      </c>
+      <c r="C112" t="str">
+        <v>RMSE</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0.84490963327620827</v>
+      </c>
+      <c r="C113">
+        <v>2.8876733677169271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A116" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A117" t="e" cm="1" vm="10">
+        <f t="array" ref="A117">_xlfn._xlws.PY(9,1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A119" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A120" t="str" cm="1">
+        <f t="array" ref="A120:C128">IFERROR(_FV(A117,"arrayPreview"),_xlfn._DF_Python_str(A117))</f>
+        <v/>
+      </c>
+      <c r="B120" t="str">
+        <v>Feature</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Coefficient</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121" t="str">
+        <v>model_year</v>
+      </c>
+      <c r="C121">
+        <v>0.82596927182081692</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" t="str">
+        <v>acceleration</v>
+      </c>
+      <c r="C122">
+        <v>6.7966521788843048E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="str">
+        <v>displacement</v>
+      </c>
+      <c r="C123">
+        <v>1.9775710196321711E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" t="str">
+        <v>weight</v>
+      </c>
+      <c r="C124">
+        <v>-7.0472665080488443E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="str">
+        <v>horsepower</v>
+      </c>
+      <c r="C125">
+        <v>-1.4561875499478419E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126" t="str">
+        <v>cylinders</v>
+      </c>
+      <c r="C126">
+        <v>-0.1656637759888904</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" t="str">
+        <v>origin_japan</v>
+      </c>
+      <c r="C127">
+        <v>-0.27578067033266168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.85">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" t="str">
+        <v>origin_usa</v>
+      </c>
+      <c r="C128">
+        <v>-2.9469066693935657</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="isPythonAnalysisSheet" r:id="rId1"/>
+    <customPr name="lastPythonCell" r:id="rId2"/>
+  </customProperties>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100255C647833039340B4008C94FEE86291" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d66ed84012b24a4c1ddb205c71c241b9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="37e3aeb7-4d0f-4a33-8841-3d6184eb8527" xmlns:ns4="61b8e4de-3d2d-450c-a930-5dd93a52fde9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="451740186a4cde1b8a6c444f751beb1b" ns3:_="" ns4:_="">
+    <xsd:import namespace="37e3aeb7-4d0f-4a33-8841-3d6184eb8527"/>
+    <xsd:import namespace="61b8e4de-3d2d-450c-a930-5dd93a52fde9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="37e3aeb7-4d0f-4a33-8841-3d6184eb8527" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="22" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="24" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="61b8e4de-3d2d-450c-a930-5dd93a52fde9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="37e3aeb7-4d0f-4a33-8841-3d6184eb8527" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2F2E91-4D43-4258-B561-CD3553288B54}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="37e3aeb7-4d0f-4a33-8841-3d6184eb8527"/>
+    <ds:schemaRef ds:uri="61b8e4de-3d2d-450c-a930-5dd93a52fde9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DD7994C-05CF-44D9-9CC3-522CCFB6C574}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F8E99D-5F8A-491F-B0EE-854194F77762}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="37e3aeb7-4d0f-4a33-8841-3d6184eb8527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="61b8e4de-3d2d-450c-a930-5dd93a52fde9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>